--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davidde\Documents\Data_for_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BB4D24A1-3594-4060-827E-23EDD8D4F42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEE6F70-2DB8-4F1A-B19C-B53804E41D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="My_Portfolio" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -222,7 +235,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -703,51 +716,51 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,7 +776,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1082,7 +1095,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,16 +1200,18 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>253.12049999999999</v>
+        <v>257.12049999999999</v>
       </c>
       <c r="D3">
-        <v>29.69</v>
+        <f>$F3/($C3-($G3/$E3))</f>
+        <v>29.649799145326767</v>
       </c>
       <c r="E3">
         <v>28.87</v>
       </c>
       <c r="F3">
-        <v>4932.87</v>
+        <f>4932.87+(4*27.9)</f>
+        <v>5044.47</v>
       </c>
       <c r="G3">
         <v>2511.27</v>

--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEE6F70-2DB8-4F1A-B19C-B53804E41D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179265F1-01DA-4761-B11C-4A4C483CDD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
   </bookViews>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,14 +1204,14 @@
       </c>
       <c r="D3">
         <f>$F3/($C3-($G3/$E3))</f>
-        <v>29.649799145326767</v>
+        <v>29.655676829036917</v>
       </c>
       <c r="E3">
         <v>28.87</v>
       </c>
       <c r="F3">
-        <f>4932.87+(4*27.9)</f>
-        <v>5044.47</v>
+        <f>4932.87+(4*28.15)</f>
+        <v>5045.47</v>
       </c>
       <c r="G3">
         <v>2511.27</v>

--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davidde\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179265F1-01DA-4761-B11C-4A4C483CDD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A0E232-E64D-40C2-BB96-62132EFF4400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="My_Portfolio" sheetId="1" r:id="rId1"/>
+    <sheet name="Crypto_Exchanges" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>Symbol</t>
   </si>
@@ -68,15 +69,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>TR Investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR Shares </t>
-  </si>
-  <si>
-    <t>TR Average Cost</t>
-  </si>
-  <si>
     <t>AMC</t>
   </si>
   <si>
@@ -218,24 +210,52 @@
     <t>Loopring EUR</t>
   </si>
   <si>
-    <t>SOL-USD</t>
-  </si>
-  <si>
-    <t>Solana USD</t>
-  </si>
-  <si>
     <t>USDEUR=X</t>
   </si>
   <si>
     <t>Forex</t>
+  </si>
+  <si>
+    <t>SOL-EUR</t>
+  </si>
+  <si>
+    <t>Solana EUR</t>
+  </si>
+  <si>
+    <t>TR/Crypto.com Investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR/Crypto.com Shares </t>
+  </si>
+  <si>
+    <t>TR/Crypto.com Transfer Cost</t>
+  </si>
+  <si>
+    <t>TR/Crypto.com Average Cost After Transfer</t>
+  </si>
+  <si>
+    <t>TR/Crypto.com Average Cost Pre Transfer</t>
+  </si>
+  <si>
+    <t>TR/Crypto.com Share After Transfer</t>
+  </si>
+  <si>
+    <t>BitPanda Commission</t>
+  </si>
+  <si>
+    <t>Crypto Value during Transfer (EUR)</t>
+  </si>
+  <si>
+    <t>Overall Cost Transfer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -714,53 +734,55 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,7 +798,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1092,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF0E65E-953C-4620-A176-948582FC2C90}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,15 +1130,21 @@
     <col min="6" max="6" width="31.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="32.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="31.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1151,21 +1179,39 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2">
         <v>36.581949999999999</v>
@@ -1180,24 +1226,26 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8373.2795769999993</v>
+        <f>SUM($F2:$F24)</f>
+        <v>8485.8795773300008</v>
       </c>
       <c r="I2">
-        <v>29881.182560000001</v>
+        <f>SUM($G2:$G24)</f>
+        <v>30877.170293220479</v>
       </c>
       <c r="J2" s="1">
         <v>45182</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>257.12049999999999</v>
@@ -1220,15 +1268,15 @@
         <v>45519</v>
       </c>
       <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1712.3091999999999</v>
@@ -1249,15 +1297,15 @@
         <v>45517</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>3.5</v>
@@ -1275,15 +1323,15 @@
         <v>45355</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0.29310000000000003</v>
@@ -1301,15 +1349,15 @@
         <v>45355</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>0.16925999999999999</v>
@@ -1327,15 +1375,15 @@
         <v>45355</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0.1191</v>
@@ -1353,15 +1401,15 @@
         <v>45355</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>0.12903200000000001</v>
@@ -1379,15 +1427,15 @@
         <v>45355</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>1.5130300000000001</v>
@@ -1405,15 +1453,15 @@
         <v>45177</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>1.032578</v>
@@ -1431,15 +1479,15 @@
         <v>45110</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>17.523</v>
@@ -1457,15 +1505,15 @@
         <v>45110</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <f>409+$M13</f>
@@ -1486,7 +1534,7 @@
         <v>45659</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L13">
         <f>$M13*$N13</f>
@@ -1499,12 +1547,12 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>109</v>
@@ -1523,15 +1571,15 @@
         <v>45454</v>
       </c>
       <c r="K14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>38</v>
@@ -1550,15 +1598,15 @@
         <v>45454</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <f>$M16</f>
@@ -1579,7 +1627,7 @@
         <v>45659</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L16">
         <f>$M16*$N16</f>
@@ -1592,39 +1640,77 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>2.0993399999999999E-2</v>
+        <f>$P17</f>
+        <v>1.938724E-2</v>
       </c>
       <c r="E17">
         <f>$G17/$C17</f>
-        <v>33860.594967942307</v>
+        <v>34279.005693078529</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>710.84901439999999</v>
+        <f>$L17+$S17</f>
+        <v>664.57531033307976</v>
       </c>
       <c r="J17" s="1">
         <v>45349</v>
       </c>
       <c r="K17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="L17">
+        <f>50.02+25.09+100+100+25+25+(0.99356*48.599793)+47.64+50+50.08+50+50</f>
+        <v>621.11681033308002</v>
+      </c>
+      <c r="M17">
+        <f>0.01984724</f>
+        <v>1.9847239999999999E-2</v>
+      </c>
+      <c r="N17">
+        <f>$L17/$M17</f>
+        <v>31294.870739361246</v>
+      </c>
+      <c r="O17">
+        <f>0.0004</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P17" s="2">
+        <f>0.01938724</f>
+        <v>1.938724E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>$M17-$O17-$P17</f>
+        <v>5.9999999999997555E-5</v>
+      </c>
+      <c r="R17">
+        <f>94475</f>
+        <v>94475</v>
+      </c>
+      <c r="S17">
+        <f>($O17+$Q17)*$R17</f>
+        <v>43.458499999999773</v>
+      </c>
+      <c r="T17">
+        <f>($L17+$S17)/$P17</f>
+        <v>34279.005693078529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18">
         <v>4.1809430000000002E-2</v>
@@ -1645,15 +1731,15 @@
         <v>45355</v>
       </c>
       <c r="K18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>959.39</v>
@@ -1671,15 +1757,15 @@
         <v>44299</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20">
         <v>9.4500000000000001E-2</v>
@@ -1697,15 +1783,15 @@
         <v>44288</v>
       </c>
       <c r="K20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>145.23515</v>
@@ -1726,15 +1812,15 @@
         <v>44288</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>4432927.0199999996</v>
@@ -1755,15 +1841,15 @@
         <v>44357</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>240.94</v>
@@ -1781,41 +1867,44 @@
         <v>44578</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
       <c r="C24">
-        <v>0.18679999999999999</v>
+        <f>0.1868+(1.09521322)</f>
+        <v>1.2820132200000001</v>
       </c>
       <c r="E24">
-        <v>133.8621</v>
+        <f>$G24/$C24</f>
+        <v>196.91557445671268</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.005440279999998</v>
+        <f>25.00544028+(($C24-0.1868)*207.67)</f>
+        <v>252.44836967739997</v>
       </c>
       <c r="J24" s="1">
         <v>45355</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1836,7 +1925,136 @@
         <v>44288</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0FE448-F2B0-4A77-910B-AABB83C7210F}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <f>$P2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>4.1809430000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>959.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>9.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>145.23515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>4432927.0199999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>240.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <f>0.1868+(1.09521322)</f>
+        <v>1.2820132200000001</v>
       </c>
     </row>
   </sheetData>

--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davidde\Documents\Data_for_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A0E232-E64D-40C2-BB96-62132EFF4400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0915BE3-1D1F-40DA-B1FE-DD660DFDCECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="My_Portfolio" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -738,51 +738,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,8 +1133,8 @@
     <col min="9" max="9" width="18.5703125" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="32.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" customWidth="1"/>
     <col min="16" max="16" width="31.28515625" style="2" customWidth="1"/>
@@ -1227,11 +1227,11 @@
       </c>
       <c r="H2">
         <f>SUM($F2:$F24)</f>
-        <v>8485.8795773300008</v>
+        <v>8585.9195773299998</v>
       </c>
       <c r="I2">
         <f>SUM($G2:$G24)</f>
-        <v>30877.170293220479</v>
+        <v>31514.598443877378</v>
       </c>
       <c r="J2" s="1">
         <v>45182</v>
@@ -1248,24 +1248,24 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>257.12049999999999</v>
+        <v>261.12049999999999</v>
       </c>
       <c r="D3">
         <f>$F3/($C3-($G3/$E3))</f>
-        <v>29.655676829036917</v>
+        <v>29.548962485586898</v>
       </c>
       <c r="E3">
         <v>28.87</v>
       </c>
       <c r="F3">
-        <f>4932.87+(4*28.15)</f>
-        <v>5045.47</v>
+        <f>4932.87+(8*26.58)</f>
+        <v>5145.51</v>
       </c>
       <c r="G3">
         <v>2511.27</v>
       </c>
       <c r="J3" s="1">
-        <v>45519</v>
+        <v>45694</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -1517,18 +1517,18 @@
       </c>
       <c r="C13">
         <f>409+$M13</f>
-        <v>430.44334400000002</v>
+        <v>442.98071800000002</v>
       </c>
       <c r="E13">
         <f>$G13/$C13</f>
-        <v>12.594798566939856</v>
+        <v>12.638187838144232</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
         <f>5053.62+75.24+$L13</f>
-        <v>5421.3472121599998</v>
+        <v>5598.4735227599995</v>
       </c>
       <c r="J13" s="1">
         <v>45659</v>
@@ -1538,13 +1538,13 @@
       </c>
       <c r="L13">
         <f>$M13*$N13</f>
-        <v>292.48721216000001</v>
+        <v>469.61352276000008</v>
       </c>
       <c r="M13">
-        <v>21.443344</v>
+        <v>33.980718000000003</v>
       </c>
       <c r="N13">
-        <v>13.64</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1648,19 +1648,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <f>$P17</f>
-        <v>1.938724E-2</v>
+        <f>0.02315961</f>
+        <v>2.3159610000000001E-2</v>
       </c>
       <c r="E17">
         <f>$G17/$C17</f>
-        <v>34279.005693078529</v>
+        <v>44233.271213681037</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <f>$L17+$S17</f>
-        <v>664.57531033307976</v>
+        <f>$L17+$S17+50+50+16.66+16.35+5.65+10.58+12.51+9.27+7.09+5.31+15.94+12.53+24.46+13.13+12.52+9.4+5.64+6.44+4.26+0.53+3.89+0.89+5.66+9.99+16.03+8.77+0.92+5.43+4.08+0.19+9.91+5.82</f>
+        <v>1024.4253103330796</v>
       </c>
       <c r="J17" s="1">
         <v>45349</v>
@@ -1878,19 +1878,19 @@
         <v>61</v>
       </c>
       <c r="C24">
-        <f>0.1868+(1.09521322)</f>
-        <v>1.2820132200000001</v>
+        <f>0.1868+(1.54383337)</f>
+        <v>1.7306333700000001</v>
       </c>
       <c r="E24">
         <f>$G24/$C24</f>
-        <v>196.91557445671268</v>
+        <v>203.91390565541909</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <f>25.00544028+(($C24-0.1868)*207.67)</f>
-        <v>252.44836967739997</v>
+        <f>25.00544028+(($C24-0.1868)*212.39)</f>
+        <v>352.90020973430001</v>
       </c>
       <c r="J24" s="1">
         <v>45355</v>

--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0915BE3-1D1F-40DA-B1FE-DD660DFDCECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E355E8-52D2-414C-B16D-834714011171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="My_Portfolio" sheetId="1" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davidde\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E355E8-52D2-414C-B16D-834714011171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D834B23-80BC-4398-9BBD-7304D4944AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="My_Portfolio" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>Symbol</t>
   </si>
@@ -240,22 +240,26 @@
     <t>TR/Crypto.com Share After Transfer</t>
   </si>
   <si>
-    <t>BitPanda Commission</t>
-  </si>
-  <si>
     <t>Crypto Value during Transfer (EUR)</t>
   </si>
   <si>
     <t>Overall Cost Transfer</t>
+  </si>
+  <si>
+    <t>BitPanda/Exodus Commission</t>
+  </si>
+  <si>
+    <t>EURUSD favorevole tra acquisto e oggi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="183" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -737,52 +741,52 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -798,7 +802,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1114,34 +1118,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF0E65E-953C-4620-A176-948582FC2C90}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="3" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="32.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="31.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21" style="3" customWidth="1"/>
+    <col min="14" max="14" width="39.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="34.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="31.28515625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="28.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="32.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1151,25 +1155,25 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1178,31 +1182,31 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1213,25 +1217,25 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>36.581949999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>38.5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>1408.4050749999999</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <f>SUM($F2:$F24)</f>
-        <v>8585.9195773299998</v>
-      </c>
-      <c r="I2">
+        <v>8478.6406079299995</v>
+      </c>
+      <c r="I2" s="3">
         <f>SUM($G2:$G24)</f>
-        <v>31514.598443877378</v>
+        <v>31612.031793723621</v>
       </c>
       <c r="J2" s="1">
         <v>45182</v>
@@ -1247,21 +1251,21 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>261.12049999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <f>$F3/($C3-($G3/$E3))</f>
         <v>29.548962485586898</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>28.87</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <f>4932.87+(8*26.58)</f>
         <v>5145.51</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>2511.27</v>
       </c>
       <c r="J3" s="1">
@@ -1278,19 +1282,19 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>1712.3091999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>3.5057</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>404.24</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>3607.36</v>
       </c>
       <c r="J4" s="1">
@@ -1307,16 +1311,16 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>3.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>144.99</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>507.46499999999997</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="1">
@@ -1333,16 +1337,16 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.29310000000000003</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>85.283010000000004</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>24.996450230000001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="1">
@@ -1359,16 +1363,16 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.16925999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>147.69999999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>24.999701999999999</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="1">
@@ -1385,16 +1389,16 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.1191</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>209.9</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>24.999089999999999</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="1">
@@ -1411,16 +1415,16 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.12903200000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>193.75</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>24.999949999999998</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="1">
@@ -1437,16 +1441,16 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>1.5130300000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>363.51</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>550.0015353</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="1">
@@ -1463,16 +1467,16 @@
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>1.032578</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>193.69</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>200.00003280000001</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="1">
@@ -1489,16 +1493,16 @@
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>17.523</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>39.229999999999997</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>687.42728999999997</v>
       </c>
       <c r="J12" s="1">
@@ -1515,18 +1519,18 @@
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <f>409+$M13</f>
         <v>442.98071800000002</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <f>$G13/$C13</f>
         <v>12.638187838144232</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
         <f>5053.62+75.24+$L13</f>
         <v>5598.4735227599995</v>
       </c>
@@ -1536,14 +1540,14 @@
       <c r="K13" t="s">
         <v>36</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <f>$M13*$N13</f>
         <v>469.61352276000008</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>33.980718000000003</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>13.82</v>
       </c>
     </row>
@@ -1554,17 +1558,17 @@
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>109</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <f>$G14/$C14</f>
         <v>120.77871559633027</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>13164.88</v>
       </c>
       <c r="J14" s="1">
@@ -1581,17 +1585,17 @@
       <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>38</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <f>$G15/$C15</f>
         <v>94.170526315789473</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>3578.48</v>
       </c>
       <c r="J15" s="1">
@@ -1608,18 +1612,18 @@
       <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <f>$M16</f>
         <v>33.672389000000003</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <f>$G16/$C16</f>
         <v>10.130000000000001</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
         <f>$L16</f>
         <v>341.10130057000003</v>
       </c>
@@ -1629,36 +1633,36 @@
       <c r="K16" t="s">
         <v>36</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <f>$M16*$N16</f>
         <v>341.10130057000003</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>33.672389000000003</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <f>0.02315961</f>
         <v>2.3159610000000001E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <f>$G17/$C17</f>
         <v>44233.271213681037</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <f>$L17+$S17+50+50+16.66+16.35+5.65+10.58+12.51+9.27+7.09+5.31+15.94+12.53+24.46+13.13+12.52+9.4+5.64+6.44+4.26+0.53+3.89+0.89+5.66+9.99+16.03+8.77+0.92+5.43+4.08+0.19+9.91+5.82</f>
         <v>1024.4253103330796</v>
       </c>
@@ -1668,23 +1672,23 @@
       <c r="K17" t="s">
         <v>45</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <f>50.02+25.09+100+100+25+25+(0.99356*48.599793)+47.64+50+50.08+50+50</f>
         <v>621.11681033308002</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <f>0.01984724</f>
         <v>1.9847239999999999E-2</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <f>$L17/$M17</f>
         <v>31294.870739361246</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <f>0.0004</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="3">
         <f>0.01938724</f>
         <v>1.938724E-2</v>
       </c>
@@ -1692,39 +1696,39 @@
         <f>$M17-$O17-$P17</f>
         <v>5.9999999999997555E-5</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="3">
         <f>94475</f>
         <v>94475</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="3">
         <f>($O17+$Q17)*$R17</f>
         <v>43.458499999999773</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="3">
         <f>($L17+$S17)/$P17</f>
         <v>34279.005693078529</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>4.1809430000000002E-2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>3580.5374000000002</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>2181.61</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>25.063761800000002</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>75.940600579999995</v>
       </c>
       <c r="J18" s="1">
@@ -1734,24 +1738,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C19">
-        <v>959.39</v>
-      </c>
-      <c r="E19">
-        <v>7.9530000000000003E-2</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>76.300286700000001</v>
+      <c r="C19" s="3">
+        <f>$P19</f>
+        <v>953.39254799000003</v>
+      </c>
+      <c r="E19" s="3">
+        <f>$T19</f>
+        <v>8.6320937669908421E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <f>($L19+$S19)</f>
+        <v>78.023450621705152</v>
       </c>
       <c r="J19" s="1">
         <v>44299</v>
@@ -1759,25 +1766,58 @@
       <c r="K19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L19" s="3">
+        <f>76.3002867</f>
+        <v>76.300286700000001</v>
+      </c>
+      <c r="M19" s="3">
+        <v>959.39</v>
+      </c>
+      <c r="N19" s="3">
+        <v>7.9530000000000003E-2</v>
+      </c>
+      <c r="O19" s="3">
+        <f>$M19-$P19</f>
+        <v>5.9974520099999609</v>
+      </c>
+      <c r="P19" s="3">
+        <f>953.39254799</f>
+        <v>953.39254799000003</v>
+      </c>
+      <c r="R19" s="3">
+        <f>0.287316</f>
+        <v>0.28731600000000002</v>
+      </c>
+      <c r="S19" s="3">
+        <f>$O19*$R19</f>
+        <v>1.7231639217051489</v>
+      </c>
+      <c r="T19" s="3">
+        <f>($L19+$O19)/$P19</f>
+        <v>8.6320937669908421E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C20">
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="E20">
-        <v>337.54</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>31.89753</v>
+      <c r="C20" s="3">
+        <f>($M20-$O20)</f>
+        <v>0.11273619999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <f>$G20/$C20</f>
+        <v>308.10746752152369</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f>$L20+$S20</f>
+        <v>34.734865079999999</v>
       </c>
       <c r="J20" s="1">
         <v>44288</v>
@@ -1785,28 +1825,61 @@
       <c r="K20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L20" s="3">
+        <f>31.89753</f>
+        <v>31.89753</v>
+      </c>
+      <c r="M20" s="3">
+        <f>(0.0945+(0.0232362+0.000042))</f>
+        <v>0.1177782</v>
+      </c>
+      <c r="N20" s="3">
+        <v>337.54</v>
+      </c>
+      <c r="O20" s="3">
+        <f>(0.005+0.000042)</f>
+        <v>5.0420000000000005E-3</v>
+      </c>
+      <c r="P20" s="3">
+        <f>$M20-($O20)</f>
+        <v>0.11273619999999999</v>
+      </c>
+      <c r="R20" s="3">
+        <v>562.74</v>
+      </c>
+      <c r="S20" s="3">
+        <f>$O20*$R20</f>
+        <v>2.8373350800000003</v>
+      </c>
+      <c r="T20" s="3">
+        <f>($L20+$S20)/$P20</f>
+        <v>308.10746752152369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C21">
-        <v>145.23515</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="3">
+        <f>121.73515+$P21</f>
+        <v>142.04214999999999</v>
+      </c>
+      <c r="D21" s="3">
         <v>1.1332800000000001</v>
       </c>
-      <c r="E21">
-        <v>1.1384000000000001</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="3">
+        <f>$T21</f>
+        <v>1.5213698804080824</v>
+      </c>
+      <c r="F21" s="3">
         <v>137.96001079999999</v>
       </c>
-      <c r="G21">
-        <v>26.752400000000002</v>
+      <c r="G21" s="3">
+        <f>$L21+$S21</f>
+        <v>30.894458161446927</v>
       </c>
       <c r="J21" s="1">
         <v>44288</v>
@@ -1814,28 +1887,60 @@
       <c r="K21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L21" s="3">
+        <f>27.25</f>
+        <v>27.25</v>
+      </c>
+      <c r="M21" s="3">
+        <f>$L21/$N21</f>
+        <v>23.497456238682418</v>
+      </c>
+      <c r="N21" s="3">
+        <f>1.1597</f>
+        <v>1.1597</v>
+      </c>
+      <c r="O21" s="3">
+        <f>$M21-($P21+$Q21)</f>
+        <v>0.99745623868241751</v>
+      </c>
+      <c r="P21" s="3">
+        <f>20.307</f>
+        <v>20.306999999999999</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>(22.5-20.307)</f>
+        <v>2.1930000000000014</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1.1423000000000001</v>
+      </c>
+      <c r="S21" s="3">
+        <f>($O21+$Q21)*$R21</f>
+        <v>3.6444581614469276</v>
+      </c>
+      <c r="T21" s="3">
+        <f>($L21+$S21)/$P21</f>
+        <v>1.5213698804080824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="C22">
-        <v>4432927.0199999996</v>
-      </c>
-      <c r="D22">
-        <v>3.1250000000000001E-5</v>
-      </c>
-      <c r="E22">
-        <v>2.7480000000000001E-5</v>
-      </c>
-      <c r="F22">
-        <v>107.27896939999999</v>
-      </c>
-      <c r="G22">
-        <v>27.48</v>
+      <c r="C22" s="3">
+        <f>1000000+$P22</f>
+        <v>4394106.0199999996</v>
+      </c>
+      <c r="E22" s="3">
+        <f>$G22/$C22</f>
+        <v>2.6446970590638145E-5</v>
+      </c>
+      <c r="G22" s="3">
+        <f>27.48+($L22+$S22)</f>
+        <v>116.21079268308601</v>
       </c>
       <c r="J22" s="1">
         <v>44357</v>
@@ -1843,24 +1948,59 @@
       <c r="K22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L22" s="3">
+        <f>(107.2789694/1.217)</f>
+        <v>88.150344617912893</v>
+      </c>
+      <c r="M22" s="3">
+        <f>4432927.02-1000000</f>
+        <v>3432927.0199999996</v>
+      </c>
+      <c r="N22" s="3">
+        <f>(0.00003125/1.0376)</f>
+        <v>3.0117579028527369E-5</v>
+      </c>
+      <c r="O22" s="3">
+        <f>38696.5376782077</f>
+        <v>38696.5376782077</v>
+      </c>
+      <c r="P22" s="3">
+        <f>3394106.02</f>
+        <v>3394106.02</v>
+      </c>
+      <c r="R22" s="3">
+        <f>0.000015</f>
+        <v>1.5E-5</v>
+      </c>
+      <c r="S22" s="3">
+        <f>($O22*$R22)</f>
+        <v>0.58044806517311553</v>
+      </c>
+      <c r="T22" s="3">
+        <f>($L22+$S22)/$P22</f>
+        <v>2.6142610796549604E-5</v>
+      </c>
+      <c r="U22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>240.94</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>1.7012948999999999</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>409.90999319999997</v>
       </c>
       <c r="J23" s="1">
@@ -1870,25 +2010,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <f>0.1868+(1.54383337)</f>
         <v>1.7306333700000001</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <f>$G24/$C24</f>
         <v>203.91390565541909</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <f>25.00544028+(($C24-0.1868)*212.39)</f>
         <v>352.90020973430001</v>
       </c>
@@ -1899,26 +2039,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
         <v>0</v>
       </c>
       <c r="J25" s="1">
@@ -1930,12 +2070,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E20:E21" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0FE448-F2B0-4A77-910B-AABB83C7210F}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -1945,14 +2088,14 @@
   <cols>
     <col min="1" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1962,11 +2105,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2117,9 @@
         <f>$P2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1990,7 +2130,7 @@
         <v>4.1809430000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2001,7 +2141,7 @@
         <v>959.39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2012,7 +2152,7 @@
         <v>9.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2023,7 +2163,7 @@
         <v>145.23515</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2034,7 +2174,7 @@
         <v>4432927.0199999996</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -2045,7 +2185,7 @@
         <v>240.94</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>

--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davidde\Documents\Data_for_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D834B23-80BC-4398-9BBD-7304D4944AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFDB4DD-D613-480B-A6C1-EAA3B96C0011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="My_Portfolio" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="183" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -742,51 +742,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -802,7 +802,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="I2" s="3">
         <f>SUM($G2:$G24)</f>
-        <v>31612.031793723621</v>
+        <v>31811.91250697762</v>
       </c>
       <c r="J2" s="1">
         <v>45182</v>
@@ -1652,19 +1652,19 @@
         <v>44</v>
       </c>
       <c r="C17" s="3">
-        <f>0.02315961</f>
-        <v>2.3159610000000001E-2</v>
+        <f>0.024343</f>
+        <v>2.4343E-2</v>
       </c>
       <c r="E17" s="3">
         <f>$G17/$C17</f>
-        <v>44233.271213681037</v>
+        <v>46614.02909801912</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <f>$L17+$S17+50+50+16.66+16.35+5.65+10.58+12.51+9.27+7.09+5.31+15.94+12.53+24.46+13.13+12.52+9.4+5.64+6.44+4.26+0.53+3.89+0.89+5.66+9.99+16.03+8.77+0.92+5.43+4.08+0.19+9.91+5.82</f>
-        <v>1024.4253103330796</v>
+        <f>$L17+$S17+50+50+16.66+16.35+5.65+10.58+12.51+9.27+7.09+5.31+15.94+12.53+24.46+13.13+12.52+9.4+5.64+6.44+4.26+0.53+3.89+0.89+5.66+9.99+16.03+8.77+0.92+5.43+4.08+0.19+9.91+5.82+12.49+12.49+35+50.32</f>
+        <v>1134.7253103330795</v>
       </c>
       <c r="J17" s="1">
         <v>45349</v>
@@ -2018,19 +2018,19 @@
         <v>61</v>
       </c>
       <c r="C24" s="3">
-        <f>0.1868+(1.54383337)</f>
-        <v>1.7306333700000001</v>
+        <f>0.1868+(2.02530191)</f>
+        <v>2.2121019099999999</v>
       </c>
       <c r="E24" s="3">
         <f>$G24/$C24</f>
-        <v>203.91390565541909</v>
+        <v>200.02736808282944</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <f>25.00544028+(($C24-0.1868)*212.39)</f>
-        <v>352.90020973430001</v>
+        <f>25.00544028+(($C24-0.1868)*206.13)</f>
+        <v>442.48092298829999</v>
       </c>
       <c r="J24" s="1">
         <v>45355</v>
@@ -2081,7 +2081,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davidde\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D834B23-80BC-4398-9BBD-7304D4944AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022C2F5F-8D94-4EF1-AB1E-829E5602190B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="My_Portfolio" sheetId="1" r:id="rId1"/>
-    <sheet name="Crypto_Exchanges" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculate_Selling" sheetId="3" r:id="rId2"/>
+    <sheet name="Crypto_Exchanges" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
   <si>
     <t>Symbol</t>
   </si>
@@ -250,6 +251,18 @@
   </si>
   <si>
     <t>EURUSD favorevole tra acquisto e oggi</t>
+  </si>
+  <si>
+    <t>Vendita</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>Guadagno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differenza </t>
   </si>
 </sst>
 </file>
@@ -259,7 +272,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="183" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -742,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1121,7 +1134,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,11 +1244,11 @@
       </c>
       <c r="H2" s="3">
         <f>SUM($F2:$F24)</f>
-        <v>8478.6406079299995</v>
+        <v>8577.7684019300013</v>
       </c>
       <c r="I2" s="3">
         <f>SUM($G2:$G24)</f>
-        <v>31612.031793723621</v>
+        <v>32011.90141092132</v>
       </c>
       <c r="J2" s="1">
         <v>45182</v>
@@ -1252,18 +1265,19 @@
         <v>15</v>
       </c>
       <c r="C3" s="3">
-        <v>261.12049999999999</v>
+        <f>261.1205+4.0003</f>
+        <v>265.12079999999997</v>
       </c>
       <c r="D3" s="3">
         <f>$F3/($C3-($G3/$E3))</f>
-        <v>29.548962485586898</v>
+        <v>29.441870205205177</v>
       </c>
       <c r="E3" s="3">
         <v>28.87</v>
       </c>
       <c r="F3" s="3">
-        <f>4932.87+(8*26.58)</f>
-        <v>5145.51</v>
+        <f>4932.87+(12.0003*25.98)</f>
+        <v>5244.6377940000002</v>
       </c>
       <c r="G3" s="3">
         <v>2511.27</v>
@@ -1521,18 +1535,18 @@
       </c>
       <c r="C13" s="3">
         <f>409+$M13</f>
-        <v>442.98071800000002</v>
+        <v>453.56665499999997</v>
       </c>
       <c r="E13" s="3">
         <f>$G13/$C13</f>
-        <v>12.638187838144232</v>
+        <v>12.673631187680673</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3">
         <f>5053.62+75.24+$L13</f>
-        <v>5598.4735227599995</v>
+        <v>5748.3365045</v>
       </c>
       <c r="J13" s="1">
         <v>45659</v>
@@ -1542,13 +1556,13 @@
       </c>
       <c r="L13" s="3">
         <f>$M13*$N13</f>
-        <v>469.61352276000008</v>
+        <v>619.47650450000003</v>
       </c>
       <c r="M13" s="3">
-        <v>33.980718000000003</v>
+        <v>44.566654999999997</v>
       </c>
       <c r="N13" s="3">
-        <v>13.82</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1652,19 +1666,19 @@
         <v>44</v>
       </c>
       <c r="C17" s="3">
-        <f>0.02315961</f>
-        <v>2.3159610000000001E-2</v>
+        <f>0.02490259</f>
+        <v>2.4902589999999999E-2</v>
       </c>
       <c r="E17" s="3">
         <f>$G17/$C17</f>
-        <v>44233.271213681037</v>
+        <v>47579.200008235268</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <f>$L17+$S17+50+50+16.66+16.35+5.65+10.58+12.51+9.27+7.09+5.31+15.94+12.53+24.46+13.13+12.52+9.4+5.64+6.44+4.26+0.53+3.89+0.89+5.66+9.99+16.03+8.77+0.92+5.43+4.08+0.19+9.91+5.82</f>
-        <v>1024.4253103330796</v>
+        <f>$L17+$S17+50+50+16.66+16.35+5.65+10.58+12.51+9.27+7.09+5.31+15.94+12.53+24.46+13.13+12.52+9.4+5.64+6.44+4.26+0.53+3.89+0.89+5.66+9.99+16.03+8.77+0.92+5.43+4.08+0.19+9.91+5.82+12.49+12.49+35+50.32+50.12</f>
+        <v>1184.8453103330794</v>
       </c>
       <c r="J17" s="1">
         <v>45349</v>
@@ -2018,19 +2032,19 @@
         <v>61</v>
       </c>
       <c r="C24" s="3">
-        <f>0.1868+(1.54383337)</f>
-        <v>1.7306333700000001</v>
+        <f>0.1868+(2.0273961)</f>
+        <v>2.2141960999999997</v>
       </c>
       <c r="E24" s="3">
         <f>$G24/$C24</f>
-        <v>203.91390565541909</v>
+        <v>199.84085654924604</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <f>25.00544028+(($C24-0.1868)*212.39)</f>
-        <v>352.90020973430001</v>
+        <f>25.00544028+(($C24-0.1868)*205.92)</f>
+        <v>442.48684519199998</v>
       </c>
       <c r="J24" s="1">
         <v>45355</v>
@@ -2077,6 +2091,191 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63A32DD-7ECC-41ED-8A86-0E46D4AF2EB1}">
+  <dimension ref="A1:T10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1712.3091999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3.5057</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F2" s="3">
+        <v>404.24</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3607.36</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="1">
+        <v>45517</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>$G3/$C2</f>
+        <v>2.3327912972727125</v>
+      </c>
+      <c r="G3" s="3">
+        <f>$G2+387.1</f>
+        <v>3994.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.33</v>
+      </c>
+      <c r="C8">
+        <f>1597*$A8</f>
+        <v>3721.01</v>
+      </c>
+      <c r="D8">
+        <f>(((($A8-$E2)*1597)+($D9))*0.725)-5.9</f>
+        <v>-2.2609174766662945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="C9">
+        <f>($C2-1597)*$A9</f>
+        <v>280.43197439999977</v>
+      </c>
+      <c r="D9" s="3">
+        <f>$C9-(($C2-1597)*($D2/1.044))</f>
+        <v>-106.77057582988499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>$C8+$C9</f>
+        <v>4001.4419744000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0FE448-F2B0-4A77-910B-AABB83C7210F}">
   <dimension ref="A1:F9"/>
   <sheetViews>

--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFDB4DD-D613-480B-A6C1-EAA3B96C0011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D58A8F-F715-4546-92A0-716BC56BC933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Symbol</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>EURUSD favorevole tra acquisto e oggi</t>
+  </si>
+  <si>
+    <t>FWRA.MI</t>
+  </si>
+  <si>
+    <t>Invesco FTSE All-World UCITS ETF USD Accumalation</t>
   </si>
 </sst>
 </file>
@@ -1118,16 +1124,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF0E65E-953C-4620-A176-948582FC2C90}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" style="3" customWidth="1"/>
@@ -1230,12 +1236,12 @@
         <v>0</v>
       </c>
       <c r="H2" s="3">
-        <f>SUM($F2:$F24)</f>
+        <f>SUM($F2:$F25)</f>
         <v>8478.6406079299995</v>
       </c>
       <c r="I2" s="3">
-        <f>SUM($G2:$G24)</f>
-        <v>31811.91250697762</v>
+        <f>SUM($G2:$G25)</f>
+        <v>35821.112506977624</v>
       </c>
       <c r="J2" s="1">
         <v>45182</v>
@@ -1553,26 +1559,26 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3">
-        <v>109</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
-        <f>$G14/$C14</f>
-        <v>120.77871559633027</v>
+        <v>6.6820000000000004</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>13164.88</v>
+        <f>$E14*$C14</f>
+        <v>4009.2000000000003</v>
       </c>
       <c r="J14" s="1">
-        <v>45454</v>
+        <v>45716</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -1580,23 +1586,23 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E15" s="3">
         <f>$G15/$C15</f>
-        <v>94.170526315789473</v>
+        <v>120.77871559633027</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>3578.48</v>
+        <v>13164.88</v>
       </c>
       <c r="J15" s="1">
         <v>45454</v>
@@ -1607,471 +1613,502 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3">
-        <f>$M16</f>
-        <v>33.672389000000003</v>
+        <v>38</v>
       </c>
       <c r="E16" s="3">
         <f>$G16/$C16</f>
-        <v>10.130000000000001</v>
+        <v>94.170526315789473</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <f>$L16</f>
-        <v>341.10130057000003</v>
+        <v>3578.48</v>
       </c>
       <c r="J16" s="1">
-        <v>45659</v>
+        <v>45454</v>
       </c>
       <c r="K16" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="3">
-        <f>$M16*$N16</f>
-        <v>341.10130057000003</v>
-      </c>
-      <c r="M16" s="3">
-        <v>33.672389000000003</v>
-      </c>
-      <c r="N16" s="3">
-        <v>10.130000000000001</v>
-      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
+        <f>$M17</f>
+        <v>33.672389000000003</v>
+      </c>
+      <c r="E17" s="3">
+        <f>$G17/$C17</f>
+        <v>10.130000000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f>$L17</f>
+        <v>341.10130057000003</v>
+      </c>
+      <c r="J17" s="1">
+        <v>45659</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="3">
+        <f>$M17*$N17</f>
+        <v>341.10130057000003</v>
+      </c>
+      <c r="M17" s="3">
+        <v>33.672389000000003</v>
+      </c>
+      <c r="N17" s="3">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <f>0.024343</f>
         <v>2.4343E-2</v>
       </c>
-      <c r="E17" s="3">
-        <f>$G17/$C17</f>
+      <c r="E18" s="3">
+        <f>$G18/$C18</f>
         <v>46614.02909801912</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <f>$L17+$S17+50+50+16.66+16.35+5.65+10.58+12.51+9.27+7.09+5.31+15.94+12.53+24.46+13.13+12.52+9.4+5.64+6.44+4.26+0.53+3.89+0.89+5.66+9.99+16.03+8.77+0.92+5.43+4.08+0.19+9.91+5.82+12.49+12.49+35+50.32</f>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f>$L18+$S18+50+50+16.66+16.35+5.65+10.58+12.51+9.27+7.09+5.31+15.94+12.53+24.46+13.13+12.52+9.4+5.64+6.44+4.26+0.53+3.89+0.89+5.66+9.99+16.03+8.77+0.92+5.43+4.08+0.19+9.91+5.82+12.49+12.49+35+50.32</f>
         <v>1134.7253103330795</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J18" s="1">
         <v>45349</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K18" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L18" s="3">
         <f>50.02+25.09+100+100+25+25+(0.99356*48.599793)+47.64+50+50.08+50+50</f>
         <v>621.11681033308002</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M18" s="3">
         <f>0.01984724</f>
         <v>1.9847239999999999E-2</v>
       </c>
-      <c r="N17" s="3">
-        <f>$L17/$M17</f>
+      <c r="N18" s="3">
+        <f>$L18/$M18</f>
         <v>31294.870739361246</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O18" s="3">
         <f>0.0004</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P18" s="3">
         <f>0.01938724</f>
         <v>1.938724E-2</v>
       </c>
-      <c r="Q17" s="3">
-        <f>$M17-$O17-$P17</f>
+      <c r="Q18" s="3">
+        <f>$M18-$O18-$P18</f>
         <v>5.9999999999997555E-5</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R18" s="3">
         <f>94475</f>
         <v>94475</v>
       </c>
-      <c r="S17" s="3">
-        <f>($O17+$Q17)*$R17</f>
+      <c r="S18" s="3">
+        <f>($O18+$Q18)*$R18</f>
         <v>43.458499999999773</v>
       </c>
-      <c r="T17" s="3">
-        <f>($L17+$S17)/$P17</f>
+      <c r="T18" s="3">
+        <f>($L18+$S18)/$P18</f>
         <v>34279.005693078529</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4.1809430000000002E-2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3580.5374000000002</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2181.61</v>
-      </c>
-      <c r="F18" s="3">
-        <v>25.063761800000002</v>
-      </c>
-      <c r="G18" s="3">
-        <v>75.940600579999995</v>
-      </c>
-      <c r="J18" s="1">
-        <v>45355</v>
-      </c>
-      <c r="K18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3">
-        <f>$P19</f>
-        <v>953.39254799000003</v>
+        <v>4.1809430000000002E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3580.5374000000002</v>
       </c>
       <c r="E19" s="3">
-        <f>$T19</f>
-        <v>8.6320937669908421E-2</v>
+        <v>2181.61</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>25.063761800000002</v>
       </c>
       <c r="G19" s="3">
-        <f>($L19+$S19)</f>
-        <v>78.023450621705152</v>
+        <v>75.940600579999995</v>
       </c>
       <c r="J19" s="1">
-        <v>44299</v>
+        <v>45355</v>
       </c>
       <c r="K19" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="3">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3">
+        <f>$P20</f>
+        <v>953.39254799000003</v>
+      </c>
+      <c r="E20" s="3">
+        <f>$T20</f>
+        <v>8.6320937669908421E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f>($L20+$S20)</f>
+        <v>78.023450621705152</v>
+      </c>
+      <c r="J20" s="1">
+        <v>44299</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="3">
         <f>76.3002867</f>
         <v>76.300286700000001</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M20" s="3">
         <v>959.39</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N20" s="3">
         <v>7.9530000000000003E-2</v>
       </c>
-      <c r="O19" s="3">
-        <f>$M19-$P19</f>
+      <c r="O20" s="3">
+        <f>$M20-$P20</f>
         <v>5.9974520099999609</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P20" s="3">
         <f>953.39254799</f>
         <v>953.39254799000003</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R20" s="3">
         <f>0.287316</f>
         <v>0.28731600000000002</v>
       </c>
-      <c r="S19" s="3">
-        <f>$O19*$R19</f>
+      <c r="S20" s="3">
+        <f>$O20*$R20</f>
         <v>1.7231639217051489</v>
       </c>
-      <c r="T19" s="3">
-        <f>($L19+$O19)/$P19</f>
+      <c r="T20" s="3">
+        <f>($L20+$O20)/$P20</f>
         <v>8.6320937669908421E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="3">
-        <f>($M20-$O20)</f>
+      <c r="C21" s="3">
+        <f>($M21-$O21)</f>
         <v>0.11273619999999999</v>
       </c>
-      <c r="E20" s="3">
-        <f>$G20/$C20</f>
+      <c r="E21" s="3">
+        <f>$G21/$C21</f>
         <v>308.10746752152369</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <f>$L20+$S20</f>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f>$L21+$S21</f>
         <v>34.734865079999999</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J21" s="1">
         <v>44288</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K21" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L21" s="3">
         <f>31.89753</f>
         <v>31.89753</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M21" s="3">
         <f>(0.0945+(0.0232362+0.000042))</f>
         <v>0.1177782</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N21" s="3">
         <v>337.54</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O21" s="3">
         <f>(0.005+0.000042)</f>
         <v>5.0420000000000005E-3</v>
       </c>
-      <c r="P20" s="3">
-        <f>$M20-($O20)</f>
+      <c r="P21" s="3">
+        <f>$M21-($O21)</f>
         <v>0.11273619999999999</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R21" s="3">
         <v>562.74</v>
       </c>
-      <c r="S20" s="3">
-        <f>$O20*$R20</f>
+      <c r="S21" s="3">
+        <f>$O21*$R21</f>
         <v>2.8373350800000003</v>
       </c>
-      <c r="T20" s="3">
-        <f>($L20+$S20)/$P20</f>
+      <c r="T21" s="3">
+        <f>($L21+$S21)/$P21</f>
         <v>308.10746752152369</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="3">
-        <f>121.73515+$P21</f>
+      <c r="C22" s="3">
+        <f>121.73515+$P22</f>
         <v>142.04214999999999</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>1.1332800000000001</v>
       </c>
-      <c r="E21" s="3">
-        <f>$T21</f>
+      <c r="E22" s="3">
+        <f>$T22</f>
         <v>1.5213698804080824</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>137.96001079999999</v>
       </c>
-      <c r="G21" s="3">
-        <f>$L21+$S21</f>
+      <c r="G22" s="3">
+        <f>$L22+$S22</f>
         <v>30.894458161446927</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J22" s="1">
         <v>44288</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K22" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L22" s="3">
         <f>27.25</f>
         <v>27.25</v>
       </c>
-      <c r="M21" s="3">
-        <f>$L21/$N21</f>
+      <c r="M22" s="3">
+        <f>$L22/$N22</f>
         <v>23.497456238682418</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N22" s="3">
         <f>1.1597</f>
         <v>1.1597</v>
       </c>
-      <c r="O21" s="3">
-        <f>$M21-($P21+$Q21)</f>
+      <c r="O22" s="3">
+        <f>$M22-($P22+$Q22)</f>
         <v>0.99745623868241751</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P22" s="3">
         <f>20.307</f>
         <v>20.306999999999999</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q22" s="3">
         <f>(22.5-20.307)</f>
         <v>2.1930000000000014</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R22" s="3">
         <v>1.1423000000000001</v>
       </c>
-      <c r="S21" s="3">
-        <f>($O21+$Q21)*$R21</f>
+      <c r="S22" s="3">
+        <f>($O22+$Q22)*$R22</f>
         <v>3.6444581614469276</v>
       </c>
-      <c r="T21" s="3">
-        <f>($L21+$S21)/$P21</f>
+      <c r="T22" s="3">
+        <f>($L22+$S22)/$P22</f>
         <v>1.5213698804080824</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="3">
-        <f>1000000+$P22</f>
+      <c r="C23" s="3">
+        <f>1000000+$P23</f>
         <v>4394106.0199999996</v>
       </c>
-      <c r="E22" s="3">
-        <f>$G22/$C22</f>
+      <c r="E23" s="3">
+        <f>$G23/$C23</f>
         <v>2.6446970590638145E-5</v>
       </c>
-      <c r="G22" s="3">
-        <f>27.48+($L22+$S22)</f>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <f>27.48+($L23+$S23)</f>
         <v>116.21079268308601</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J23" s="1">
         <v>44357</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K23" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L23" s="3">
         <f>(107.2789694/1.217)</f>
         <v>88.150344617912893</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M23" s="3">
         <f>4432927.02-1000000</f>
         <v>3432927.0199999996</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N23" s="3">
         <f>(0.00003125/1.0376)</f>
         <v>3.0117579028527369E-5</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O23" s="3">
         <f>38696.5376782077</f>
         <v>38696.5376782077</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P23" s="3">
         <f>3394106.02</f>
         <v>3394106.02</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R23" s="3">
         <f>0.000015</f>
         <v>1.5E-5</v>
       </c>
-      <c r="S22" s="3">
-        <f>($O22*$R22)</f>
+      <c r="S23" s="3">
+        <f>($O23*$R23)</f>
         <v>0.58044806517311553</v>
       </c>
-      <c r="T22" s="3">
-        <f>($L22+$S22)/$P22</f>
+      <c r="T23" s="3">
+        <f>($L23+$S23)/$P23</f>
         <v>2.6142610796549604E-5</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U23" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="3">
-        <v>240.94</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1.7012948999999999</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>409.90999319999997</v>
-      </c>
-      <c r="J23" s="1">
-        <v>44578</v>
-      </c>
-      <c r="K23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="3">
+        <v>240.94</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.7012948999999999</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>409.90999319999997</v>
+      </c>
+      <c r="J24" s="1">
+        <v>44578</v>
+      </c>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>60</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <f>0.1868+(2.02530191)</f>
         <v>2.2121019099999999</v>
       </c>
-      <c r="E24" s="3">
-        <f>$G24/$C24</f>
+      <c r="E25" s="3">
+        <f>$G25/$C25</f>
         <v>200.02736808282944</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <f>25.00544028+(($C24-0.1868)*206.13)</f>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <f>25.00544028+(($C25-0.1868)*206.13)</f>
         <v>442.48092298829999</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J25" s="1">
         <v>45355</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
         <v>44288</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K26" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E20:E21" formula="1"/>
+    <ignoredError sqref="E21:E22" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D58A8F-F715-4546-92A0-716BC56BC933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C074F2-F3F5-474F-B2AC-CE8610A1985A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="My_Portfolio" sheetId="1" r:id="rId1"/>
-    <sheet name="Crypto_Exchanges" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>Symbol</t>
   </si>
@@ -262,9 +261,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
@@ -747,8 +745,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1127,31 +1125,31 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21" style="3" customWidth="1"/>
-    <col min="14" max="14" width="39.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="34.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="31.28515625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="28.28515625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="32.140625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21" style="2" customWidth="1"/>
+    <col min="14" max="14" width="39.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="34.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="31.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="28.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1161,25 +1159,25 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1188,31 +1186,31 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1223,25 +1221,25 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>36.581949999999999</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>38.5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1408.4050749999999</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <f>SUM($F2:$F25)</f>
-        <v>8478.6406079299995</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <f>SUM($F2:$F26)</f>
+        <v>8577.7684019300013</v>
+      </c>
+      <c r="I2" s="2">
         <f>SUM($G2:$G25)</f>
-        <v>35821.112506977624</v>
+        <v>36021.101410916235</v>
       </c>
       <c r="J2" s="1">
         <v>45182</v>
@@ -1257,29 +1255,38 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
-        <v>261.12049999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <f>$F3/($C3-($G3/$E3))</f>
-        <v>29.548962485586898</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C3">
+        <v>265.12079999999997</v>
+      </c>
+      <c r="D3">
+        <v>29.441870210000001</v>
+      </c>
+      <c r="E3">
         <v>28.87</v>
       </c>
-      <c r="F3" s="3">
-        <f>4932.87+(8*26.58)</f>
-        <v>5145.51</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3">
+        <v>5244.6377940000002</v>
+      </c>
+      <c r="G3">
         <v>2511.27</v>
       </c>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="J3" s="1">
         <v>45694</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1288,19 +1295,19 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1712.3091999999999</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>3.5057</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>404.24</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>3607.36</v>
       </c>
       <c r="J4" s="1">
@@ -1317,16 +1324,16 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>3.5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>144.99</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>507.46499999999997</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="1">
@@ -1343,16 +1350,16 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.29310000000000003</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>85.283010000000004</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>24.996450230000001</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="1">
@@ -1369,16 +1376,16 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.16925999999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>147.69999999999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>24.999701999999999</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="1">
@@ -1395,16 +1402,16 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.1191</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>209.9</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>24.999089999999999</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="1">
@@ -1421,16 +1428,16 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.12903200000000001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>193.75</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>24.999949999999998</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="1">
@@ -1447,16 +1454,16 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1.5130300000000001</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>363.51</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>550.0015353</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="1">
@@ -1473,16 +1480,16 @@
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1.032578</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>193.69</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>200.00003280000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="J11" s="1">
@@ -1499,16 +1506,16 @@
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>17.523</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>39.229999999999997</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>687.42728999999997</v>
       </c>
       <c r="J12" s="1">
@@ -1525,37 +1532,42 @@
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="3">
-        <f>409+$M13</f>
-        <v>442.98071800000002</v>
-      </c>
-      <c r="E13" s="3">
-        <f>$G13/$C13</f>
-        <v>12.638187838144232</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <f>5053.62+75.24+$L13</f>
-        <v>5598.4735227599995</v>
-      </c>
+      <c r="C13">
+        <v>453.56665500000003</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13">
+        <v>12.67363119</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>5748.3365045</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
       <c r="J13" s="1">
         <v>45659</v>
       </c>
       <c r="K13" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="3">
-        <f>$M13*$N13</f>
-        <v>469.61352276000008</v>
-      </c>
-      <c r="M13" s="3">
-        <v>33.980718000000003</v>
-      </c>
-      <c r="N13" s="3">
-        <v>13.82</v>
-      </c>
+      <c r="L13">
+        <v>619.47650450000003</v>
+      </c>
+      <c r="M13">
+        <v>44.566654999999997</v>
+      </c>
+      <c r="N13">
+        <v>13.9</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1564,16 +1576,16 @@
       <c r="B14" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>6.6820000000000004</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <f>$E14*$C14</f>
         <v>4009.2000000000003</v>
       </c>
@@ -1591,17 +1603,17 @@
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>109</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f>$G15/$C15</f>
         <v>120.77871559633027</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>13164.88</v>
       </c>
       <c r="J15" s="1">
@@ -1618,17 +1630,17 @@
       <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>38</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f>$G16/$C16</f>
         <v>94.170526315789473</v>
       </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
         <v>3578.48</v>
       </c>
       <c r="J16" s="1">
@@ -1645,18 +1657,18 @@
       <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f>$M17</f>
         <v>33.672389000000003</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f>$G17/$C17</f>
         <v>10.130000000000001</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
         <f>$L17</f>
         <v>341.10130057000003</v>
       </c>
@@ -1666,14 +1678,14 @@
       <c r="K17" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <f>$M17*$N17</f>
         <v>341.10130057000003</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>33.672389000000003</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="2">
         <v>10.130000000000001</v>
       </c>
     </row>
@@ -1684,62 +1696,53 @@
       <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3">
-        <f>0.024343</f>
-        <v>2.4343E-2</v>
-      </c>
-      <c r="E18" s="3">
-        <f>$G18/$C18</f>
-        <v>46614.02909801912</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <f>$L18+$S18+50+50+16.66+16.35+5.65+10.58+12.51+9.27+7.09+5.31+15.94+12.53+24.46+13.13+12.52+9.4+5.64+6.44+4.26+0.53+3.89+0.89+5.66+9.99+16.03+8.77+0.92+5.43+4.08+0.19+9.91+5.82+12.49+12.49+35+50.32</f>
-        <v>1134.7253103330795</v>
-      </c>
+      <c r="C18">
+        <v>2.4902589999999999E-2</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18">
+        <v>47579.200008239997</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1184.8453103300001</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
       <c r="J18" s="1">
         <v>45349</v>
       </c>
       <c r="K18" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="3">
-        <f>50.02+25.09+100+100+25+25+(0.99356*48.599793)+47.64+50+50.08+50+50</f>
-        <v>621.11681033308002</v>
-      </c>
-      <c r="M18" s="3">
-        <f>0.01984724</f>
+      <c r="L18">
+        <v>621.11681033000002</v>
+      </c>
+      <c r="M18">
         <v>1.9847239999999999E-2</v>
       </c>
-      <c r="N18" s="3">
-        <f>$L18/$M18</f>
-        <v>31294.870739361246</v>
-      </c>
-      <c r="O18" s="3">
-        <f>0.0004</f>
+      <c r="N18">
+        <v>31294.870739360002</v>
+      </c>
+      <c r="O18">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="P18" s="3">
-        <f>0.01938724</f>
+      <c r="P18">
         <v>1.938724E-2</v>
       </c>
-      <c r="Q18" s="3">
-        <f>$M18-$O18-$P18</f>
-        <v>5.9999999999997555E-5</v>
-      </c>
-      <c r="R18" s="3">
-        <f>94475</f>
+      <c r="Q18">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="R18">
         <v>94475</v>
       </c>
-      <c r="S18" s="3">
-        <f>($O18+$Q18)*$R18</f>
-        <v>43.458499999999773</v>
-      </c>
-      <c r="T18" s="3">
-        <f>($L18+$S18)/$P18</f>
-        <v>34279.005693078529</v>
+      <c r="S18">
+        <v>43.458500000000001</v>
+      </c>
+      <c r="T18">
+        <v>34279.005693079998</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1752,16 +1755,16 @@
       <c r="C19" s="3">
         <v>4.1809430000000002E-2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>3580.5374000000002</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>2181.61</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>25.063761800000002</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>75.940600579999995</v>
       </c>
       <c r="J19" s="1">
@@ -1778,18 +1781,18 @@
       <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f>$P20</f>
         <v>953.39254799000003</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f>$T20</f>
         <v>8.6320937669908421E-2</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
         <f>($L20+$S20)</f>
         <v>78.023450621705152</v>
       </c>
@@ -1799,33 +1802,33 @@
       <c r="K20" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <f>76.3002867</f>
         <v>76.300286700000001</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <v>959.39</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <v>7.9530000000000003E-2</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="2">
         <f>$M20-$P20</f>
         <v>5.9974520099999609</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <f>953.39254799</f>
         <v>953.39254799000003</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="2">
         <f>0.287316</f>
         <v>0.28731600000000002</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="2">
         <f>$O20*$R20</f>
         <v>1.7231639217051489</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="2">
         <f>($L20+$O20)/$P20</f>
         <v>8.6320937669908421E-2</v>
       </c>
@@ -1837,18 +1840,18 @@
       <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f>($M21-$O21)</f>
         <v>0.11273619999999999</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f>$G21/$C21</f>
         <v>308.10746752152369</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
         <f>$L21+$S21</f>
         <v>34.734865079999999</v>
       </c>
@@ -1858,33 +1861,33 @@
       <c r="K21" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <f>31.89753</f>
         <v>31.89753</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <f>(0.0945+(0.0232362+0.000042))</f>
         <v>0.1177782</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="2">
         <v>337.54</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <f>(0.005+0.000042)</f>
         <v>5.0420000000000005E-3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="2">
         <f>$M21-($O21)</f>
         <v>0.11273619999999999</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="2">
         <v>562.74</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="2">
         <f>$O21*$R21</f>
         <v>2.8373350800000003</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="2">
         <f>($L21+$S21)/$P21</f>
         <v>308.10746752152369</v>
       </c>
@@ -1896,21 +1899,21 @@
       <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f>121.73515+$P22</f>
         <v>142.04214999999999</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>1.1332800000000001</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f>$T22</f>
         <v>1.5213698804080824</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>137.96001079999999</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <f>$L22+$S22</f>
         <v>30.894458161446927</v>
       </c>
@@ -1920,38 +1923,38 @@
       <c r="K22" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <f>27.25</f>
         <v>27.25</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <f>$L22/$N22</f>
         <v>23.497456238682418</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="2">
         <f>1.1597</f>
         <v>1.1597</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="2">
         <f>$M22-($P22+$Q22)</f>
         <v>0.99745623868241751</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="2">
         <f>20.307</f>
         <v>20.306999999999999</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="2">
         <f>(22.5-20.307)</f>
         <v>2.1930000000000014</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="2">
         <v>1.1423000000000001</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="2">
         <f>($O22+$Q22)*$R22</f>
         <v>3.6444581614469276</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="2">
         <f>($L22+$S22)/$P22</f>
         <v>1.5213698804080824</v>
       </c>
@@ -1963,18 +1966,18 @@
       <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f>1000000+$P23</f>
         <v>4394106.0199999996</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f>$G23/$C23</f>
         <v>2.6446970590638145E-5</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
         <f>27.48+($L23+$S23)</f>
         <v>116.21079268308601</v>
       </c>
@@ -1984,35 +1987,35 @@
       <c r="K23" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <f>(107.2789694/1.217)</f>
         <v>88.150344617912893</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <f>4432927.02-1000000</f>
         <v>3432927.0199999996</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="2">
         <f>(0.00003125/1.0376)</f>
         <v>3.0117579028527369E-5</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="2">
         <f>38696.5376782077</f>
         <v>38696.5376782077</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="2">
         <f>3394106.02</f>
         <v>3394106.02</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="2">
         <f>0.000015</f>
         <v>1.5E-5</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="2">
         <f>($O23*$R23)</f>
         <v>0.58044806517311553</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="2">
         <f>($L23+$S23)/$P23</f>
         <v>2.6142610796549604E-5</v>
       </c>
@@ -2027,16 +2030,16 @@
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>240.94</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>1.7012948999999999</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
         <v>409.90999319999997</v>
       </c>
       <c r="J24" s="1">
@@ -2053,20 +2056,17 @@
       <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="3">
-        <f>0.1868+(2.02530191)</f>
-        <v>2.2121019099999999</v>
-      </c>
-      <c r="E25" s="3">
-        <f>$G25/$C25</f>
-        <v>200.02736808282944</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <f>25.00544028+(($C25-0.1868)*206.13)</f>
-        <v>442.48092298829999</v>
+      <c r="C25" s="2">
+        <v>2.2141961000000001</v>
+      </c>
+      <c r="E25" s="2">
+        <v>199.84085655000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>442.48684519</v>
       </c>
       <c r="J25" s="1">
         <v>45355</v>
@@ -2082,19 +2082,19 @@
       <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="J26" s="1">
@@ -2111,130 +2111,4 @@
     <ignoredError sqref="E21:E22" formula="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0FE448-F2B0-4A77-910B-AABB83C7210F}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="39" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2">
-        <f>$P2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3">
-        <v>4.1809430000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4">
-        <v>959.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>9.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6">
-        <v>145.23515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7">
-        <v>4432927.0199999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8">
-        <v>240.94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9">
-        <f>0.1868+(1.09521322)</f>
-        <v>1.2820132200000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C074F2-F3F5-474F-B2AC-CE8610A1985A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DA1CD0-FABC-49F4-8677-5D7673D97E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
   </bookViews>
@@ -251,10 +251,10 @@
     <t>EURUSD favorevole tra acquisto e oggi</t>
   </si>
   <si>
-    <t>FWRA.MI</t>
-  </si>
-  <si>
     <t>Invesco FTSE All-World UCITS ETF USD Accumalation</t>
+  </si>
+  <si>
+    <t>IE000716YHJ7.SG</t>
   </si>
 </sst>
 </file>
@@ -263,7 +263,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -742,11 +742,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1122,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF0E65E-953C-4620-A176-948582FC2C90}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1475,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
@@ -1570,11 +1571,11 @@
       <c r="T13"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
       </c>
       <c r="C14" s="2">
         <v>600</v>
@@ -2103,6 +2104,9 @@
       <c r="K26" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DA1CD0-FABC-49F4-8677-5D7673D97E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D10EA62-49C4-4D0D-8724-4B78C79D5C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
   </bookViews>
@@ -254,7 +254,7 @@
     <t>Invesco FTSE All-World UCITS ETF USD Accumalation</t>
   </si>
   <si>
-    <t>IE000716YHJ7.SG</t>
+    <t>FWRA.MI</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1571,7 @@
       <c r="T13"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>73</v>
       </c>
       <c r="B14" t="s">

--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davidde\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D10EA62-49C4-4D0D-8724-4B78C79D5C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24347E1-1B71-4D4D-8630-7DD3A5DD8884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{78A9643E-E6FF-4F47-A051-AAA42B5BD3AD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{7CAA0F25-51A9-432A-AC29-842DAD675A20}"/>
   </bookViews>
   <sheets>
     <sheet name="My_Portfolio" sheetId="1" r:id="rId1"/>
@@ -68,6 +68,33 @@
     <t>Category</t>
   </si>
   <si>
+    <t>TR/Crypto.com Investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR/Crypto.com Shares </t>
+  </si>
+  <si>
+    <t>TR/Crypto.com Average Cost Pre Transfer</t>
+  </si>
+  <si>
+    <t>TR/Crypto.com Transfer Cost</t>
+  </si>
+  <si>
+    <t>TR/Crypto.com Share After Transfer</t>
+  </si>
+  <si>
+    <t>BitPanda/Exodus Commission</t>
+  </si>
+  <si>
+    <t>Crypto Value during Transfer (EUR)</t>
+  </si>
+  <si>
+    <t>Overall Cost Transfer</t>
+  </si>
+  <si>
+    <t>TR/Crypto.com Average Cost After Transfer</t>
+  </si>
+  <si>
     <t>AMC</t>
   </si>
   <si>
@@ -146,6 +173,12 @@
     <t>ETF</t>
   </si>
   <si>
+    <t>FWRA.MI</t>
+  </si>
+  <si>
+    <t>Invesco FTSE All-World UCITS ETF USD Accumalation</t>
+  </si>
+  <si>
     <t>IE00BK5BQT80</t>
   </si>
   <si>
@@ -203,67 +236,33 @@
     <t>Shiba Inu EUR</t>
   </si>
   <si>
+    <t>EURUSD favorevole tra acquisto e oggi</t>
+  </si>
+  <si>
     <t>LRC-EUR</t>
   </si>
   <si>
     <t>Loopring EUR</t>
   </si>
   <si>
+    <t>SOL-EUR</t>
+  </si>
+  <si>
+    <t>Solana EUR</t>
+  </si>
+  <si>
     <t>USDEUR=X</t>
   </si>
   <si>
     <t>Forex</t>
-  </si>
-  <si>
-    <t>SOL-EUR</t>
-  </si>
-  <si>
-    <t>Solana EUR</t>
-  </si>
-  <si>
-    <t>TR/Crypto.com Investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR/Crypto.com Shares </t>
-  </si>
-  <si>
-    <t>TR/Crypto.com Transfer Cost</t>
-  </si>
-  <si>
-    <t>TR/Crypto.com Average Cost After Transfer</t>
-  </si>
-  <si>
-    <t>TR/Crypto.com Average Cost Pre Transfer</t>
-  </si>
-  <si>
-    <t>TR/Crypto.com Share After Transfer</t>
-  </si>
-  <si>
-    <t>Crypto Value during Transfer (EUR)</t>
-  </si>
-  <si>
-    <t>Overall Cost Transfer</t>
-  </si>
-  <si>
-    <t>BitPanda/Exodus Commission</t>
-  </si>
-  <si>
-    <t>EURUSD favorevole tra acquisto e oggi</t>
-  </si>
-  <si>
-    <t>Invesco FTSE All-World UCITS ETF USD Accumalation</t>
-  </si>
-  <si>
-    <t>FWRA.MI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -742,56 +741,53 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -807,7 +803,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1122,35 +1118,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF0E65E-953C-4620-A176-948582FC2C90}">
-  <dimension ref="A1:U30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289231F5-827E-452F-9216-3F479667046E}">
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21" style="2" customWidth="1"/>
-    <col min="14" max="14" width="39.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="34.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="31.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="28.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="32.140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1160,25 +1141,25 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1187,74 +1168,72 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>65</v>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2">
+        <v>21</v>
+      </c>
+      <c r="C2">
         <v>36.581949999999999</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>38.5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>1408.4050749999999</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <f>SUM($F2:$F26)</f>
-        <v>8577.7684019300013</v>
-      </c>
-      <c r="I2" s="2">
-        <f>SUM($G2:$G25)</f>
-        <v>36021.101410916235</v>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>8602.7738422099992</v>
+      </c>
+      <c r="I2">
+        <v>36864.203249899998</v>
       </c>
       <c r="J2" s="1">
         <v>45182</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>265.12079999999997</v>
@@ -1271,272 +1250,260 @@
       <c r="G3">
         <v>2511.27</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
       <c r="J3" s="1">
         <v>45694</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2">
+        <v>26</v>
+      </c>
+      <c r="C4">
         <v>1712.3091999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>3.5057</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>404.24</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>3607.36</v>
       </c>
       <c r="J4" s="1">
         <v>45517</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
+        <v>28</v>
+      </c>
+      <c r="C5">
         <v>3.5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>144.99</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>507.46499999999997</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>45355</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="C6">
         <v>0.29310000000000003</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>85.283010000000004</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>24.996450230000001</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>45355</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2">
+        <v>32</v>
+      </c>
+      <c r="C7">
         <v>0.16925999999999999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>147.69999999999999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>24.999701999999999</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>0</v>
       </c>
       <c r="J7" s="1">
         <v>45355</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>0.1191</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>209.9</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>24.999089999999999</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>45355</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2">
+        <v>36</v>
+      </c>
+      <c r="C9">
         <v>0.12903200000000001</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>193.75</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>24.999949999999998</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>45355</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2">
+        <v>38</v>
+      </c>
+      <c r="C10">
         <v>1.5130300000000001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>363.51</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>550.0015353</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>45177</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
+      <c r="A11" t="s">
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2">
+        <v>40</v>
+      </c>
+      <c r="C11">
         <v>1.032578</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>193.69</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>200.00003280000001</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>0</v>
       </c>
       <c r="J11" s="1">
         <v>45110</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2">
+        <v>42</v>
+      </c>
+      <c r="C12">
         <v>17.523</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>39.229999999999997</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>687.42728999999997</v>
       </c>
       <c r="J12" s="1">
         <v>45110</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>453.56665500000003</v>
       </c>
-      <c r="D13"/>
       <c r="E13">
         <v>12.67363119</v>
       </c>
@@ -1544,15 +1511,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5748.3365045</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13"/>
+        <v>5748.3365050000002</v>
+      </c>
       <c r="J13" s="1">
         <v>45659</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L13">
         <v>619.47650450000003</v>
@@ -1563,169 +1528,154 @@
       <c r="N13">
         <v>13.9</v>
       </c>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="2">
-        <v>600</v>
-      </c>
-      <c r="E14" s="2">
-        <v>6.6820000000000004</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <f>$E14*$C14</f>
-        <v>4009.2000000000003</v>
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>725</v>
+      </c>
+      <c r="E14">
+        <v>6.6340000000000003</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>4809.6499999999996</v>
       </c>
       <c r="J14" s="1">
         <v>45716</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2">
+        <v>49</v>
+      </c>
+      <c r="C15">
         <v>109</v>
       </c>
-      <c r="E15" s="2">
-        <f>$G15/$C15</f>
-        <v>120.77871559633027</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="E15">
+        <v>120.7787156</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>13164.88</v>
       </c>
       <c r="J15" s="1">
         <v>45454</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2">
+        <v>51</v>
+      </c>
+      <c r="C16">
         <v>38</v>
       </c>
-      <c r="E16" s="2">
-        <f>$G16/$C16</f>
-        <v>94.170526315789473</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="E16">
+        <v>94.170526319999993</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>3578.48</v>
       </c>
       <c r="J16" s="1">
         <v>45454</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2">
-        <f>$M17</f>
+        <v>53</v>
+      </c>
+      <c r="C17">
         <v>33.672389000000003</v>
       </c>
-      <c r="E17" s="2">
-        <f>$G17/$C17</f>
+      <c r="E17">
         <v>10.130000000000001</v>
       </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <f>$L17</f>
-        <v>341.10130057000003</v>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>341.10130056999998</v>
       </c>
       <c r="J17" s="1">
         <v>45659</v>
       </c>
       <c r="K17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="2">
-        <f>$M17*$N17</f>
-        <v>341.10130057000003</v>
-      </c>
-      <c r="M17" s="2">
+        <v>45</v>
+      </c>
+      <c r="L17">
+        <v>341.10130056999998</v>
+      </c>
+      <c r="M17">
         <v>33.672389000000003</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17">
         <v>10.130000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C18">
-        <v>2.4902589999999999E-2</v>
-      </c>
-      <c r="D18"/>
+        <v>2.5298540000000001E-2</v>
+      </c>
       <c r="E18">
-        <v>47579.200008239997</v>
+        <v>47579.20001</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1184.8453103300001</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18"/>
+        <f>1184.84531+32.26</f>
+        <v>1217.1053099999999</v>
+      </c>
       <c r="J18" s="1">
         <v>45349</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="L18">
-        <v>621.11681033000002</v>
+        <v>621.1168103</v>
       </c>
       <c r="M18">
         <v>1.9847239999999999E-2</v>
       </c>
       <c r="N18">
-        <v>31294.870739360002</v>
+        <v>31294.870739999998</v>
       </c>
       <c r="O18">
         <v>4.0000000000000002E-4</v>
@@ -1743,376 +1693,338 @@
         <v>43.458500000000001</v>
       </c>
       <c r="T18">
-        <v>34279.005693079998</v>
+        <v>34279.005689999998</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>4.1809430000000002E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>3580.5374000000002</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>2181.61</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>25.063761800000002</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>75.940600579999995</v>
       </c>
       <c r="J19" s="1">
         <v>45355</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="2">
-        <f>$P20</f>
+        <v>60</v>
+      </c>
+      <c r="C20">
         <v>953.39254799000003</v>
       </c>
-      <c r="E20" s="2">
-        <f>$T20</f>
-        <v>8.6320937669908421E-2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <f>($L20+$S20)</f>
-        <v>78.023450621705152</v>
+      <c r="E20">
+        <v>8.6320939999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>78.023450620000006</v>
       </c>
       <c r="J20" s="1">
         <v>44299</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="2">
-        <f>76.3002867</f>
+        <v>56</v>
+      </c>
+      <c r="L20">
         <v>76.300286700000001</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20">
         <v>959.39</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20">
         <v>7.9530000000000003E-2</v>
       </c>
-      <c r="O20" s="2">
-        <f>$M20-$P20</f>
-        <v>5.9974520099999609</v>
-      </c>
-      <c r="P20" s="2">
-        <f>953.39254799</f>
+      <c r="O20">
+        <v>5.9974520099999999</v>
+      </c>
+      <c r="P20">
         <v>953.39254799000003</v>
       </c>
-      <c r="R20" s="2">
-        <f>0.287316</f>
+      <c r="R20">
         <v>0.28731600000000002</v>
       </c>
-      <c r="S20" s="2">
-        <f>$O20*$R20</f>
-        <v>1.7231639217051489</v>
-      </c>
-      <c r="T20" s="2">
-        <f>($L20+$O20)/$P20</f>
-        <v>8.6320937669908421E-2</v>
+      <c r="S20">
+        <v>1.72316392</v>
+      </c>
+      <c r="T20">
+        <v>8.6320939999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="2">
-        <f>($M21-$O21)</f>
+        <v>62</v>
+      </c>
+      <c r="C21">
         <v>0.11273619999999999</v>
       </c>
-      <c r="E21" s="2">
-        <f>$G21/$C21</f>
-        <v>308.10746752152369</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <f>$L21+$S21</f>
+      <c r="E21">
+        <v>308.10746752</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>34.734865079999999</v>
       </c>
       <c r="J21" s="1">
         <v>44288</v>
       </c>
       <c r="K21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="2">
-        <f>31.89753</f>
+        <v>56</v>
+      </c>
+      <c r="L21">
         <v>31.89753</v>
       </c>
-      <c r="M21" s="2">
-        <f>(0.0945+(0.0232362+0.000042))</f>
+      <c r="M21">
         <v>0.1177782</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21">
         <v>337.54</v>
       </c>
-      <c r="O21" s="2">
-        <f>(0.005+0.000042)</f>
-        <v>5.0420000000000005E-3</v>
-      </c>
-      <c r="P21" s="2">
-        <f>$M21-($O21)</f>
+      <c r="O21">
+        <v>5.0419999999999996E-3</v>
+      </c>
+      <c r="P21">
         <v>0.11273619999999999</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21">
         <v>562.74</v>
       </c>
-      <c r="S21" s="2">
-        <f>$O21*$R21</f>
-        <v>2.8373350800000003</v>
-      </c>
-      <c r="T21" s="2">
-        <f>($L21+$S21)/$P21</f>
-        <v>308.10746752152369</v>
+      <c r="S21">
+        <v>2.8373350799999999</v>
+      </c>
+      <c r="T21">
+        <v>308.10746752</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="2">
-        <f>121.73515+$P22</f>
+        <v>64</v>
+      </c>
+      <c r="C22">
         <v>142.04214999999999</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>1.1332800000000001</v>
       </c>
-      <c r="E22" s="2">
-        <f>$T22</f>
-        <v>1.5213698804080824</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="E22">
+        <v>1.52136988</v>
+      </c>
+      <c r="F22">
         <v>137.96001079999999</v>
       </c>
-      <c r="G22" s="2">
-        <f>$L22+$S22</f>
-        <v>30.894458161446927</v>
+      <c r="G22">
+        <v>30.894458159999999</v>
       </c>
       <c r="J22" s="1">
         <v>44288</v>
       </c>
       <c r="K22" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="2">
-        <f>27.25</f>
+        <v>56</v>
+      </c>
+      <c r="L22">
         <v>27.25</v>
       </c>
-      <c r="M22" s="2">
-        <f>$L22/$N22</f>
-        <v>23.497456238682418</v>
-      </c>
-      <c r="N22" s="2">
-        <f>1.1597</f>
+      <c r="M22">
+        <v>23.497456240000002</v>
+      </c>
+      <c r="N22">
         <v>1.1597</v>
       </c>
-      <c r="O22" s="2">
-        <f>$M22-($P22+$Q22)</f>
-        <v>0.99745623868241751</v>
-      </c>
-      <c r="P22" s="2">
-        <f>20.307</f>
+      <c r="O22">
+        <v>0.99745623999999999</v>
+      </c>
+      <c r="P22">
         <v>20.306999999999999</v>
       </c>
-      <c r="Q22" s="2">
-        <f>(22.5-20.307)</f>
-        <v>2.1930000000000014</v>
-      </c>
-      <c r="R22" s="2">
+      <c r="Q22">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="R22">
         <v>1.1423000000000001</v>
       </c>
-      <c r="S22" s="2">
-        <f>($O22+$Q22)*$R22</f>
-        <v>3.6444581614469276</v>
-      </c>
-      <c r="T22" s="2">
-        <f>($L22+$S22)/$P22</f>
-        <v>1.5213698804080824</v>
+      <c r="S22">
+        <v>3.6444581600000001</v>
+      </c>
+      <c r="T22">
+        <v>1.52136988</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="2">
-        <f>1000000+$P23</f>
+        <v>66</v>
+      </c>
+      <c r="C23">
         <v>4394106.0199999996</v>
       </c>
-      <c r="E23" s="2">
-        <f>$G23/$C23</f>
-        <v>2.6446970590638145E-5</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <f>27.48+($L23+$S23)</f>
-        <v>116.21079268308601</v>
+      <c r="E23">
+        <v>2.6449999999999999E-5</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>116.21079268</v>
       </c>
       <c r="J23" s="1">
         <v>44357</v>
       </c>
       <c r="K23" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="2">
-        <f>(107.2789694/1.217)</f>
-        <v>88.150344617912893</v>
-      </c>
-      <c r="M23" s="2">
-        <f>4432927.02-1000000</f>
-        <v>3432927.0199999996</v>
-      </c>
-      <c r="N23" s="2">
-        <f>(0.00003125/1.0376)</f>
-        <v>3.0117579028527369E-5</v>
-      </c>
-      <c r="O23" s="2">
-        <f>38696.5376782077</f>
-        <v>38696.5376782077</v>
-      </c>
-      <c r="P23" s="2">
-        <f>3394106.02</f>
+        <v>56</v>
+      </c>
+      <c r="L23">
+        <v>88.150344619999998</v>
+      </c>
+      <c r="M23">
+        <v>3432927.02</v>
+      </c>
+      <c r="N23">
+        <v>3.012E-5</v>
+      </c>
+      <c r="O23">
+        <v>38696.537678209999</v>
+      </c>
+      <c r="P23">
         <v>3394106.02</v>
       </c>
-      <c r="R23" s="2">
-        <f>0.000015</f>
+      <c r="R23">
         <v>1.5E-5</v>
       </c>
-      <c r="S23" s="2">
-        <f>($O23*$R23)</f>
-        <v>0.58044806517311553</v>
-      </c>
-      <c r="T23" s="2">
-        <f>($L23+$S23)/$P23</f>
-        <v>2.6142610796549604E-5</v>
+      <c r="S23">
+        <v>0.58044806999999998</v>
+      </c>
+      <c r="T23">
+        <v>2.614E-5</v>
       </c>
       <c r="U23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="2">
+        <v>69</v>
+      </c>
+      <c r="C24">
         <v>240.94</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>1.7012948999999999</v>
       </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>409.90999319999997</v>
       </c>
       <c r="J24" s="1">
         <v>44578</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2.2141961000000001</v>
-      </c>
-      <c r="E25" s="2">
-        <v>199.84085655000001</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>442.48684519</v>
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>2.7329251399999999</v>
+      </c>
+      <c r="D25">
+        <v>133.8621</v>
+      </c>
+      <c r="E25">
+        <v>190.54</v>
+      </c>
+      <c r="F25">
+        <v>25.005440279999998</v>
+      </c>
+      <c r="G25">
+        <v>485.13868417999998</v>
       </c>
       <c r="J25" s="1">
         <v>45355</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="L25">
+        <v>25.005440279999998</v>
+      </c>
+      <c r="M25">
+        <v>0.18679999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
+        <v>72</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>0</v>
       </c>
       <c r="J26" s="1">
         <v>44288</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E21:E22" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davidde\Documents\Data_for_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24347E1-1B71-4D4D-8630-7DD3A5DD8884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D8D97B-354F-4D73-8AD7-3AD55DB5B400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{7CAA0F25-51A9-432A-AC29-842DAD675A20}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{7CAA0F25-51A9-432A-AC29-842DAD675A20}"/>
   </bookViews>
   <sheets>
     <sheet name="My_Portfolio" sheetId="1" r:id="rId1"/>
@@ -746,48 +746,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -803,7 +803,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1122,15 +1122,26 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" customWidth="1"/>
     <col min="21" max="21" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1502,16 +1513,19 @@
         <v>44</v>
       </c>
       <c r="C13">
-        <v>453.56665500000003</v>
+        <f>409+M13</f>
+        <v>512.30691000000002</v>
       </c>
       <c r="E13">
-        <v>12.67363119</v>
+        <f>G13/C13</f>
+        <v>12.641012873708847</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5748.3365050000002</v>
+        <f>5126.89+L13</f>
+        <v>6476.0782446000003</v>
       </c>
       <c r="J13" s="1">
         <v>45659</v>
@@ -1520,13 +1534,15 @@
         <v>45</v>
       </c>
       <c r="L13">
-        <v>619.47650450000003</v>
+        <f>M13*N13</f>
+        <v>1349.1882446000002</v>
       </c>
       <c r="M13">
-        <v>44.566654999999997</v>
+        <f>103.30691</f>
+        <v>103.30691</v>
       </c>
       <c r="N13">
-        <v>13.9</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1537,16 +1553,17 @@
         <v>47</v>
       </c>
       <c r="C14">
-        <v>725</v>
+        <v>1048</v>
       </c>
       <c r="E14">
-        <v>6.6340000000000003</v>
+        <f t="shared" ref="E14:E17" si="0">G14/C14</f>
+        <v>6.4980916030534353</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4809.6499999999996</v>
+        <v>6810</v>
       </c>
       <c r="J14" s="1">
         <v>45716</v>
@@ -1566,7 +1583,8 @@
         <v>109</v>
       </c>
       <c r="E15">
-        <v>120.7787156</v>
+        <f t="shared" si="0"/>
+        <v>120.77871559633027</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1592,7 +1610,8 @@
         <v>38</v>
       </c>
       <c r="E16">
-        <v>94.170526319999993</v>
+        <f t="shared" si="0"/>
+        <v>94.170526315789473</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1615,10 +1634,12 @@
         <v>53</v>
       </c>
       <c r="C17">
+        <f>M17</f>
         <v>33.672389000000003</v>
       </c>
       <c r="E17">
-        <v>10.130000000000001</v>
+        <f t="shared" si="0"/>
+        <v>10.129999999999999</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1633,7 +1654,8 @@
         <v>45</v>
       </c>
       <c r="L17">
-        <v>341.10130056999998</v>
+        <f t="shared" ref="L14:L17" si="1">M17*N17</f>
+        <v>341.10130057000003</v>
       </c>
       <c r="M17">
         <v>33.672389000000003</v>
@@ -1650,17 +1672,19 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <v>2.5298540000000001E-2</v>
+        <f>0.03051898</f>
+        <v>3.0518980000000001E-2</v>
       </c>
       <c r="E18">
-        <v>47579.20001</v>
+        <f>G18/C18</f>
+        <v>57478.831543518158</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <f>1184.84531+32.26</f>
-        <v>1217.1053099999999</v>
+        <f>1089.62+L18+S18</f>
+        <v>1754.1953102999998</v>
       </c>
       <c r="J18" s="1">
         <v>45349</v>
@@ -1968,19 +1992,22 @@
         <v>71</v>
       </c>
       <c r="C25">
-        <v>2.7329251399999999</v>
+        <f>0.1868+5.54693735</f>
+        <v>5.7337373500000002</v>
       </c>
       <c r="D25">
         <v>133.8621</v>
       </c>
       <c r="E25">
-        <v>190.54</v>
+        <f>159.61</f>
+        <v>159.61000000000001</v>
       </c>
       <c r="F25">
         <v>25.005440279999998</v>
       </c>
       <c r="G25">
-        <v>485.13868417999998</v>
+        <f>(C25-M25)*E25</f>
+        <v>885.34667043350009</v>
       </c>
       <c r="J25" s="1">
         <v>45355</v>

--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Data_for_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MyGITprj\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D8D97B-354F-4D73-8AD7-3AD55DB5B400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF60B03-D417-47CF-87BE-7C61C0D03AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{7CAA0F25-51A9-432A-AC29-842DAD675A20}"/>
   </bookViews>
@@ -28,12 +28,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Symbol</t>
   </si>
@@ -234,9 +237,6 @@
   </si>
   <si>
     <t>Shiba Inu EUR</t>
-  </si>
-  <si>
-    <t>EURUSD favorevole tra acquisto e oggi</t>
   </si>
   <si>
     <t>LRC-EUR</t>
@@ -1119,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289231F5-827E-452F-9216-3F479667046E}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,6 +1134,8 @@
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="36" customWidth="1"/>
     <col min="13" max="13" width="28.7109375" customWidth="1"/>
@@ -1227,10 +1229,12 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8602.7738422099992</v>
+        <f>SUM(F2:F26)</f>
+        <v>8821.5727689300002</v>
       </c>
       <c r="I2">
-        <v>36864.203249899998</v>
+        <f>SUM(G2:G25)</f>
+        <v>41926.512082737994</v>
       </c>
       <c r="J2" s="1">
         <v>45182</v>
@@ -1247,16 +1251,19 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>265.12079999999997</v>
+        <f>(21.2003+168.89096+87)</f>
+        <v>277.09126000000003</v>
       </c>
       <c r="D3">
-        <v>29.441870210000001</v>
+        <f>$F3/(21.2003+168.89096)</f>
+        <v>29.004520895910733</v>
       </c>
       <c r="E3">
         <v>28.87</v>
       </c>
       <c r="F3">
-        <v>5244.6377940000002</v>
+        <f>(21.2003*24.42)+(168.89096*29.58)</f>
+        <v>5513.5059228</v>
       </c>
       <c r="G3">
         <v>2511.27</v>
@@ -1626,7 +1633,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1654,7 +1661,7 @@
         <v>45</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L14:L17" si="1">M17*N17</f>
+        <f t="shared" ref="L17" si="1">M17*N17</f>
         <v>341.10130057000003</v>
       </c>
       <c r="M17">
@@ -1664,7 +1671,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1672,19 +1679,19 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <f>0.03051898</f>
-        <v>3.0518980000000001E-2</v>
+        <f>0.034524</f>
+        <v>3.4523999999999999E-2</v>
       </c>
       <c r="E18">
         <f>G18/C18</f>
-        <v>57478.831543518158</v>
+        <v>81351.8311985865</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <f>1089.62+L18+S18</f>
-        <v>1754.1953102999998</v>
+        <f>2144.01531+L18+S18</f>
+        <v>2808.5906203000004</v>
       </c>
       <c r="J18" s="1">
         <v>45349</v>
@@ -1720,7 +1727,7 @@
         <v>34279.005689999998</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1728,16 +1735,13 @@
         <v>58</v>
       </c>
       <c r="C19">
-        <v>4.1809430000000002E-2</v>
-      </c>
-      <c r="D19">
-        <v>3580.5374000000002</v>
+        <v>3.0450000000000001E-2</v>
       </c>
       <c r="E19">
         <v>2181.61</v>
       </c>
       <c r="F19">
-        <v>25.063761800000002</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>75.940600579999995</v>
@@ -1749,7 +1753,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1799,7 +1803,7 @@
         <v>8.6320939999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>308.10746752</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>1.52136988</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1954,16 +1958,13 @@
       <c r="T23">
         <v>2.614E-5</v>
       </c>
-      <c r="U23" t="s">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>69</v>
       </c>
       <c r="C24">
         <v>240.94</v>
@@ -1984,30 +1985,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
       <c r="C25">
-        <f>0.1868+5.54693735</f>
-        <v>5.7337373500000002</v>
-      </c>
-      <c r="D25">
-        <v>133.8621</v>
+        <f>7.86844664</f>
+        <v>7.8684466400000002</v>
       </c>
       <c r="E25">
-        <f>159.61</f>
-        <v>159.61000000000001</v>
+        <f>151.95</f>
+        <v>151.94999999999999</v>
       </c>
       <c r="F25">
-        <v>25.005440279999998</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <f>(C25-M25)*E25</f>
-        <v>885.34667043350009</v>
+        <v>1195.6104669479998</v>
       </c>
       <c r="J25" s="1">
         <v>45355</v>
@@ -2015,19 +2013,13 @@
       <c r="K25" t="s">
         <v>56</v>
       </c>
-      <c r="L25">
-        <v>25.005440279999998</v>
-      </c>
-      <c r="M25">
-        <v>0.18679999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2048,7 +2040,7 @@
         <v>44288</v>
       </c>
       <c r="K26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/My_Portfolio.xlsx
+++ b/My_Portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MyGITprj\Data_for_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF60B03-D417-47CF-87BE-7C61C0D03AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64FCE76-E923-4D22-B526-7D941168F166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{7CAA0F25-51A9-432A-AC29-842DAD675A20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{7CAA0F25-51A9-432A-AC29-842DAD675A20}"/>
   </bookViews>
   <sheets>
     <sheet name="My_Portfolio" sheetId="1" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I2">
         <f>SUM(G2:G25)</f>
-        <v>41926.512082737994</v>
+        <v>45456.771775977999</v>
       </c>
       <c r="J2" s="1">
         <v>45182</v>
@@ -1521,18 +1521,18 @@
       </c>
       <c r="C13">
         <f>409+M13</f>
-        <v>512.30691000000002</v>
+        <v>551.10998199999995</v>
       </c>
       <c r="E13">
         <f>G13/C13</f>
-        <v>12.641012873708847</v>
+        <v>12.678249156408858</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
         <f>5126.89+L13</f>
-        <v>6476.0782446000003</v>
+        <v>6987.1096643800001</v>
       </c>
       <c r="J13" s="1">
         <v>45659</v>
@@ -1542,14 +1542,14 @@
       </c>
       <c r="L13">
         <f>M13*N13</f>
-        <v>1349.1882446000002</v>
+        <v>1860.21966438</v>
       </c>
       <c r="M13">
-        <f>103.30691</f>
-        <v>103.30691</v>
+        <f>142.109982</f>
+        <v>142.109982</v>
       </c>
       <c r="N13">
-        <v>13.06</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1560,17 +1560,17 @@
         <v>47</v>
       </c>
       <c r="C14">
-        <v>1048</v>
+        <v>1510</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E17" si="0">G14/C14</f>
-        <v>6.4980916030534353</v>
+        <v>6.4923000000000002</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>6810</v>
+        <f>E14*C14</f>
+        <v>9803.3729999999996</v>
       </c>
       <c r="J14" s="1">
         <v>45716</v>
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E14:E17" si="0">G15/C15</f>
         <v>120.77871559633027</v>
       </c>
       <c r="F15">
@@ -1642,17 +1642,18 @@
       </c>
       <c r="C17">
         <f>M17</f>
-        <v>33.672389000000003</v>
+        <v>36.082259000000001</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>10.129999999999999</v>
+        <v>10.17</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>341.10130056999998</v>
+        <f>L17</f>
+        <v>366.95657403000001</v>
       </c>
       <c r="J17" s="1">
         <v>45659</v>
@@ -1662,13 +1663,13 @@
       </c>
       <c r="L17">
         <f t="shared" ref="L17" si="1">M17*N17</f>
-        <v>341.10130057000003</v>
+        <v>366.95657403000001</v>
       </c>
       <c r="M17">
-        <v>33.672389000000003</v>
+        <v>36.082259000000001</v>
       </c>
       <c r="N17">
-        <v>10.130000000000001</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2004,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f>(C25-M25)*E25</f>
+        <f>(C25)*E25</f>
         <v>1195.6104669479998</v>
       </c>
       <c r="J25" s="1">
